--- a/load_and_weather_data.xlsx
+++ b/load_and_weather_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>Load Demand (MW)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Real Estate Development (Growth Rate %)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,9 +496,6 @@
       <c r="G2" t="n">
         <v>10183.61</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,9 +523,6 @@
       <c r="G3" t="n">
         <v>9560.42</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -561,9 +550,6 @@
       <c r="G4" t="n">
         <v>9077.659999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,9 +577,6 @@
       <c r="G5" t="n">
         <v>8617.910000000002</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -621,9 +604,6 @@
       <c r="G6" t="n">
         <v>8261.870000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,9 +631,6 @@
       <c r="G7" t="n">
         <v>8069.759999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -681,9 +658,6 @@
       <c r="G8" t="n">
         <v>7961.360000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -711,9 +685,6 @@
       <c r="G9" t="n">
         <v>8156.64</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -741,9 +712,6 @@
       <c r="G10" t="n">
         <v>8226.920000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -771,9 +739,6 @@
       <c r="G11" t="n">
         <v>8391.539999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -801,9 +766,6 @@
       <c r="G12" t="n">
         <v>9044.949999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -831,9 +793,6 @@
       <c r="G13" t="n">
         <v>9861.539999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -861,9 +820,6 @@
       <c r="G14" t="n">
         <v>10058.21</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -891,9 +847,6 @@
       <c r="G15" t="n">
         <v>10001.81</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -921,9 +874,6 @@
       <c r="G16" t="n">
         <v>10482.81</v>
       </c>
-      <c r="H16" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -951,9 +901,6 @@
       <c r="G17" t="n">
         <v>10813.14</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -981,9 +928,6 @@
       <c r="G18" t="n">
         <v>10480.64</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1011,9 +955,6 @@
       <c r="G19" t="n">
         <v>10271.15</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1041,9 +982,6 @@
       <c r="G20" t="n">
         <v>10214.51</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1071,9 +1009,6 @@
       <c r="G21" t="n">
         <v>10151.96</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1101,9 +1036,6 @@
       <c r="G22" t="n">
         <v>9976.16</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1131,9 +1063,6 @@
       <c r="G23" t="n">
         <v>9744.420000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1161,9 +1090,6 @@
       <c r="G24" t="n">
         <v>10041.31</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1191,9 +1117,6 @@
       <c r="G25" t="n">
         <v>9901.639999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1221,9 +1144,6 @@
       <c r="G26" t="n">
         <v>9991.289999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1251,9 +1171,6 @@
       <c r="G27" t="n">
         <v>9441.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1281,9 +1198,6 @@
       <c r="G28" t="n">
         <v>8965.809999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1311,9 +1225,6 @@
       <c r="G29" t="n">
         <v>8575.940000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1341,9 +1252,6 @@
       <c r="G30" t="n">
         <v>8270.9</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1371,9 +1279,6 @@
       <c r="G31" t="n">
         <v>8085.49</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1401,9 +1306,6 @@
       <c r="G32" t="n">
         <v>8005.01</v>
       </c>
-      <c r="H32" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1431,9 +1333,6 @@
       <c r="G33" t="n">
         <v>7933.380000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1461,9 +1360,6 @@
       <c r="G34" t="n">
         <v>7982.93</v>
       </c>
-      <c r="H34" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1491,9 +1387,6 @@
       <c r="G35" t="n">
         <v>8121.069999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1521,9 +1414,6 @@
       <c r="G36" t="n">
         <v>8917.689999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1551,9 +1441,6 @@
       <c r="G37" t="n">
         <v>9359.169999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1581,9 +1468,6 @@
       <c r="G38" t="n">
         <v>9644.630000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1611,9 +1495,6 @@
       <c r="G39" t="n">
         <v>9528.6</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1641,9 +1522,6 @@
       <c r="G40" t="n">
         <v>9360.789999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1671,9 +1549,6 @@
       <c r="G41" t="n">
         <v>9489.409999999998</v>
       </c>
-      <c r="H41" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1701,9 +1576,6 @@
       <c r="G42" t="n">
         <v>9367.140000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1731,9 +1603,6 @@
       <c r="G43" t="n">
         <v>9230.91</v>
       </c>
-      <c r="H43" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1761,9 +1630,6 @@
       <c r="G44" t="n">
         <v>9354.550000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1791,9 +1657,6 @@
       <c r="G45" t="n">
         <v>9618.320000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1821,9 +1684,6 @@
       <c r="G46" t="n">
         <v>9629.759999999998</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1851,9 +1711,6 @@
       <c r="G47" t="n">
         <v>9693.509999999998</v>
       </c>
-      <c r="H47" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1881,9 +1738,6 @@
       <c r="G48" t="n">
         <v>10051.34</v>
       </c>
-      <c r="H48" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1910,9 +1764,6 @@
       </c>
       <c r="G49" t="n">
         <v>10262.01</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.5</v>
       </c>
     </row>
   </sheetData>
